--- a/code/backend/010.codegen/model/app-designer.service.xlsx
+++ b/code/backend/010.codegen/model/app-designer.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="208">
   <si>
     <t>#变量名</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Application Status</t>
+  </si>
+  <si>
+    <t>自动以 code（短横线替换为下划线） 为父目录名称</t>
   </si>
   <si>
     <t>字典项</t>
@@ -344,7 +347,7 @@
     <t>CODE</t>
   </si>
   <si>
-    <t>唯一编码，包含小写字母、短横线或数字</t>
+    <t>唯一标识，用于代码生成，可含字母、数字、下划线，其包含且仅包含两级标识，通过短横线区分</t>
   </si>
   <si>
     <t>STATUS</t>
@@ -389,6 +392,15 @@
     <t>LICENSE</t>
   </si>
   <si>
+    <t>URL_PROTO</t>
+  </si>
+  <si>
+    <t>访问地址协议</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
     <t>唯一键列表</t>
   </si>
   <si>
@@ -573,9 +585,6 @@
   </si>
   <si>
     <t>应用的后台服务</t>
-  </si>
-  <si>
-    <t>未设置时，与应用版本号一致</t>
   </si>
   <si>
     <t>UK_DEV_APP_SERVICE_CODE</t>
@@ -687,6 +696,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -694,72 +711,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -778,8 +733,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,16 +777,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,8 +802,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,7 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,37 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +943,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,55 +1039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,31 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,17 +1342,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,17 +1362,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,8 +1383,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1403,6 +1397,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,11 +1425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,145 +1444,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2546,7 +2555,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2603,14 +2612,16 @@
       </c>
       <c r="C3" s="71"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="45"/>
+      <c r="E3" s="45" t="s">
+        <v>51</v>
+      </c>
       <c r="F3" s="46"/>
       <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="73"/>
       <c r="B4" s="74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="75"/>
@@ -2624,10 +2635,10 @@
         <v>26</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>5</v>
@@ -2645,13 +2656,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="79">
         <v>-1</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
@@ -2662,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="79">
         <v>0</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
@@ -2679,13 +2690,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="79">
         <v>1</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
@@ -2718,7 +2729,7 @@
       <c r="C11" s="71"/>
       <c r="D11" s="72"/>
       <c r="E11" s="84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>45</v>
@@ -2735,13 +2746,13 @@
       <c r="C12" s="71"/>
       <c r="D12" s="72"/>
       <c r="E12" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="70" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2751,14 +2762,16 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="72"/>
-      <c r="E13" s="45"/>
+      <c r="E13" s="45" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="46"/>
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="73"/>
       <c r="B14" s="74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
@@ -2772,10 +2785,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="78" t="s">
         <v>5</v>
@@ -2793,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="79">
         <v>-1</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="88"/>
       <c r="G16" s="88"/>
@@ -2810,13 +2823,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="79">
         <v>0</v>
       </c>
       <c r="E17" s="88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="88"/>
@@ -2827,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="79">
         <v>1</v>
       </c>
       <c r="E18" s="88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -2883,8 +2896,8 @@
   <sheetPr/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2892,25 +2905,26 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
     <col min="12" max="12" width="16.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -2926,20 +2940,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -2956,12 +2970,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -2979,12 +2993,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -2997,7 +3011,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3033,7 +3047,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3052,16 +3066,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>47</v>
@@ -3070,13 +3084,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -3085,16 +3099,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3102,21 +3116,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>33</v>
@@ -3137,10 +3151,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -3166,20 +3180,20 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -3193,21 +3207,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>33</v>
@@ -3226,26 +3240,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3261,17 +3275,17 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>39</v>
@@ -3292,7 +3306,7 @@
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>5</v>
@@ -3300,7 +3314,7 @@
       <c r="F15" s="42"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>33</v>
@@ -3312,26 +3326,26 @@
       <c r="L15" s="51"/>
       <c r="M15" s="15"/>
       <c r="N15" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O15" s="61"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="49.5" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="82.5" spans="1:15">
       <c r="A16" s="13">
         <v>8</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>33</v>
@@ -3343,7 +3357,7 @@
       <c r="L16" s="51"/>
       <c r="M16" s="15"/>
       <c r="N16" s="51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O16" s="61"/>
     </row>
@@ -3354,15 +3368,15 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>39</v>
@@ -3385,15 +3399,15 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>33</v>
@@ -3414,10 +3428,10 @@
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="7" t="s">
@@ -3443,10 +3457,10 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="7"/>
@@ -3470,15 +3484,15 @@
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="7"/>
       <c r="H21" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>33</v>
@@ -3499,7 +3513,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>2</v>
@@ -3526,10 +3540,10 @@
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="7"/>
@@ -3553,7 +3567,7 @@
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>24</v>
@@ -3574,19 +3588,31 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A25" s="11"/>
+      <c r="A25" s="11">
+        <v>17</v>
+      </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="41"/>
       <c r="G25" s="7"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="49"/>
+      <c r="I25" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="49">
+        <v>10</v>
+      </c>
       <c r="K25" s="11"/>
       <c r="L25" s="50"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N25" s="50"/>
       <c r="O25" s="11"/>
     </row>
@@ -3643,7 +3669,7 @@
     </row>
     <row r="29" s="4" customFormat="1" spans="1:15">
       <c r="A29" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3665,11 +3691,11 @@
         <v>26</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>47</v>
@@ -3678,12 +3704,12 @@
         <v>49</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
@@ -3696,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
@@ -3705,7 +3731,7 @@
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="56"/>
@@ -3786,7 +3812,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3806,19 +3832,19 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="7"/>
@@ -3835,13 +3861,13 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
@@ -3858,7 +3884,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3873,7 +3899,7 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -3883,7 +3909,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="7"/>
@@ -3894,7 +3920,7 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -3916,18 +3942,18 @@
         <v>26</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -3993,19 +4019,19 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="7"/>
@@ -4022,13 +4048,13 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="7"/>
@@ -4045,7 +4071,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -4060,7 +4086,7 @@
     <row r="49" s="1" customFormat="1" spans="1:15">
       <c r="A49" s="32"/>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -4070,7 +4096,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="7"/>
@@ -4081,7 +4107,7 @@
     <row r="50" s="1" customFormat="1" spans="1:15">
       <c r="A50" s="32"/>
       <c r="B50" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -4103,18 +4129,18 @@
         <v>26</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -4333,12 +4359,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -4354,20 +4380,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -4384,12 +4410,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -4407,12 +4433,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -4425,12 +4451,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -4463,7 +4489,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4482,16 +4508,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>47</v>
@@ -4500,13 +4526,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -4515,16 +4541,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4532,21 +4558,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>33</v>
@@ -4567,15 +4593,15 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="21"/>
       <c r="H10" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>33</v>
@@ -4595,10 +4621,10 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>5</v>
@@ -4606,7 +4632,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>33</v>
@@ -4618,7 +4644,7 @@
       <c r="L11" s="51"/>
       <c r="M11" s="15"/>
       <c r="N11" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O11" s="61"/>
     </row>
@@ -4629,15 +4655,15 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>33</v>
@@ -4649,7 +4675,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="15"/>
       <c r="N12" s="51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O12" s="61"/>
     </row>
@@ -4660,7 +4686,7 @@
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="44" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>27</v>
@@ -4676,7 +4702,7 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="44" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="50"/>
@@ -4689,15 +4715,15 @@
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>33</v>
@@ -4707,7 +4733,7 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="44" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="50"/>
@@ -4720,10 +4746,10 @@
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="7"/>
@@ -4745,7 +4771,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>30</v>
@@ -4867,7 +4893,7 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:15">
       <c r="A23" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4889,11 +4915,11 @@
         <v>26</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>47</v>
@@ -4902,12 +4928,12 @@
         <v>49</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
@@ -4920,21 +4946,21 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="56"/>
       <c r="J25" s="45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
@@ -5012,7 +5038,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5032,27 +5058,27 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -5067,17 +5093,17 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -5092,7 +5118,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -5107,7 +5133,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -5117,11 +5143,11 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M34" s="46"/>
       <c r="N34" s="46"/>
@@ -5130,7 +5156,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -5152,18 +5178,18 @@
         <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5179,12 +5205,12 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -5233,19 +5259,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="7"/>
@@ -5262,13 +5288,13 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="7"/>
@@ -5285,7 +5311,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -5300,7 +5326,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -5310,7 +5336,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
@@ -5321,7 +5347,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -5343,18 +5369,18 @@
         <v>26</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5572,12 +5598,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -5593,20 +5619,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -5623,12 +5649,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -5646,12 +5672,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -5664,12 +5690,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -5702,7 +5728,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5721,16 +5747,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>47</v>
@@ -5739,13 +5765,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -5754,16 +5780,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5771,21 +5797,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>33</v>
@@ -5806,15 +5832,15 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="21"/>
       <c r="H10" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>33</v>
@@ -5834,10 +5860,10 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>5</v>
@@ -5845,7 +5871,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>33</v>
@@ -5857,7 +5883,7 @@
       <c r="L11" s="51"/>
       <c r="M11" s="15"/>
       <c r="N11" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O11" s="61"/>
     </row>
@@ -5868,15 +5894,15 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>33</v>
@@ -5888,7 +5914,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="15"/>
       <c r="N12" s="51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O12" s="61"/>
     </row>
@@ -5899,15 +5925,15 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>33</v>
@@ -5928,15 +5954,15 @@
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>33</v>
@@ -5948,7 +5974,7 @@
       <c r="L14" s="50"/>
       <c r="M14" s="7"/>
       <c r="N14" s="50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O14" s="11"/>
     </row>
@@ -6107,7 +6133,7 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:15">
       <c r="A24" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -6129,11 +6155,11 @@
         <v>26</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>47</v>
@@ -6142,12 +6168,12 @@
         <v>49</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
@@ -6160,21 +6186,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="45" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="56"/>
       <c r="J26" s="45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
@@ -6252,7 +6278,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -6272,27 +6298,27 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -6307,17 +6333,17 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -6332,7 +6358,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -6347,7 +6373,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -6357,11 +6383,11 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
@@ -6370,7 +6396,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -6392,18 +6418,18 @@
         <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -6419,12 +6445,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -6473,19 +6499,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="7"/>
@@ -6502,13 +6528,13 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="7"/>
@@ -6525,7 +6551,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -6540,7 +6566,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -6550,7 +6576,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
@@ -6561,7 +6587,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -6583,18 +6609,18 @@
         <v>26</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6788,10 +6814,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6807,18 +6833,18 @@
     <col min="10" max="11" width="9" style="1"/>
     <col min="12" max="12" width="16.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -6834,20 +6860,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -6864,12 +6890,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -6887,12 +6913,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -6905,12 +6931,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -6943,7 +6969,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6962,16 +6988,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>47</v>
@@ -6980,13 +7006,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -6995,16 +7021,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -7012,21 +7038,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>33</v>
@@ -7047,10 +7073,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -7076,20 +7102,20 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -7103,21 +7129,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>33</v>
@@ -7136,26 +7162,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -7171,17 +7197,17 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>39</v>
@@ -7202,15 +7228,15 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="21"/>
       <c r="H15" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>33</v>
@@ -7231,7 +7257,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>5</v>
@@ -7239,7 +7265,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>33</v>
@@ -7253,22 +7279,22 @@
       <c r="N16" s="51"/>
       <c r="O16" s="61"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="49.5" spans="1:15">
+    <row r="17" s="2" customFormat="1" ht="82.5" spans="1:15">
       <c r="A17" s="13">
         <v>9</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>33</v>
@@ -7280,7 +7306,7 @@
       <c r="L17" s="51"/>
       <c r="M17" s="15"/>
       <c r="N17" s="51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O17" s="61"/>
     </row>
@@ -7291,15 +7317,15 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>39</v>
@@ -7307,7 +7333,7 @@
       <c r="J18" s="49"/>
       <c r="K18" s="13"/>
       <c r="L18" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M18" s="15">
         <v>-1</v>
@@ -7315,56 +7341,44 @@
       <c r="N18" s="51"/>
       <c r="O18" s="61"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="33" spans="1:15">
-      <c r="A19" s="13">
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
+      <c r="A19" s="11">
         <v>11</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="11"/>
       <c r="I19" s="48" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="49">
-        <v>50</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="O19" s="61"/>
+        <v>2000</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A20" s="11">
-        <v>12</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="41"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="49">
-        <v>2000</v>
-      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="11"/>
       <c r="L20" s="50"/>
       <c r="M20" s="7"/>
@@ -7388,128 +7402,128 @@
       <c r="N21" s="50"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="22" s="1" customFormat="1" spans="1:15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="49"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="50"/>
       <c r="M22" s="7"/>
       <c r="N22" s="50"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="11"/>
+    <row r="23" s="4" customFormat="1" spans="1:15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="63"/>
+      <c r="A24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="64"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:15">
-      <c r="A25" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="64"/>
+      <c r="A25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:15">
-      <c r="A26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="28"/>
+      <c r="A26" s="29">
+        <v>1</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:15">
-      <c r="A27" s="29">
-        <v>1</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>123</v>
-      </c>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>154</v>
-      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="45" t="s">
-        <v>182</v>
-      </c>
+      <c r="G27" s="45"/>
       <c r="H27" s="46"/>
       <c r="I27" s="56"/>
-      <c r="J27" s="45" t="s">
-        <v>156</v>
-      </c>
+      <c r="J27" s="45"/>
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
       <c r="M27" s="46"/>
@@ -7550,85 +7564,93 @@
       <c r="N29" s="46"/>
       <c r="O29" s="56"/>
     </row>
-    <row r="30" s="4" customFormat="1" spans="1:15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="56"/>
+    <row r="30" s="1" customFormat="1" spans="1:15">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="65"/>
+      <c r="A31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:15">
-      <c r="A32" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="A32" s="32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
-      <c r="A33" s="32">
-        <v>1</v>
-      </c>
+      <c r="A33" s="32"/>
       <c r="B33" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>183</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="7" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -7637,24 +7659,20 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="5" t="s">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -7662,118 +7680,114 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="5"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
+      <c r="L35" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="56"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
-      <c r="B36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="56"/>
+      <c r="B36" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
-      <c r="B37" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="58"/>
+      <c r="B37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
-      <c r="B38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="11">
-        <v>1</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="11"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="47"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:15">
-      <c r="A40" s="34"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="11"/>
       <c r="C40" s="35"/>
       <c r="D40" s="36"/>
@@ -7790,38 +7804,44 @@
       <c r="O40" s="47"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:15">
-      <c r="A41" s="37"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="47"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="7"/>
@@ -7832,20 +7852,18 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="5" t="s">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -7855,18 +7873,18 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="5" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="5"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -7875,92 +7893,88 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
-      <c r="B45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+      <c r="B45" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="58"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
-      <c r="B46" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="58"/>
+      <c r="B46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
-      <c r="B47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:15">
-      <c r="A48" s="32"/>
-      <c r="B48" s="11">
-        <v>1</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="47"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:15">
-      <c r="A49" s="34"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="11"/>
       <c r="C49" s="35"/>
       <c r="D49" s="36"/>
@@ -7975,23 +7989,6 @@
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
       <c r="O49" s="47"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:15">
-      <c r="A50" s="37"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -8010,8 +8007,11 @@
     <mergeCell ref="D5:O5"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A23:O23"/>
     <mergeCell ref="A24:O24"/>
-    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:O25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:O26"/>
@@ -8024,11 +8024,13 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="A30:O30"/>
     <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:I33"/>
@@ -8040,15 +8042,15 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="L34:O34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D35:I35"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L35:O35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:O36"/>
-    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L37:O37"/>
     <mergeCell ref="C38:D38"/>
@@ -8066,9 +8068,9 @@
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:O41"/>
     <mergeCell ref="B42:C42"/>
@@ -8082,15 +8084,15 @@
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:O43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D44:I44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:O44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="B45:I45"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="L45:O45"/>
-    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="L46:O46"/>
     <mergeCell ref="C47:D47"/>
@@ -8108,13 +8110,8 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:O49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A41:A49"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8148,12 +8145,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -8169,20 +8166,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -8199,12 +8196,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -8222,12 +8219,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -8240,12 +8237,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -8278,7 +8275,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8297,16 +8294,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>47</v>
@@ -8315,13 +8312,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>29</v>
@@ -8330,16 +8327,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -8347,21 +8344,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>33</v>
@@ -8382,10 +8379,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -8411,20 +8408,20 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -8438,21 +8435,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>33</v>
@@ -8471,26 +8468,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -8506,17 +8503,17 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>39</v>
@@ -8537,15 +8534,15 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="21"/>
       <c r="H15" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>33</v>
@@ -8566,7 +8563,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>5</v>
@@ -8574,7 +8571,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>33</v>
@@ -8595,15 +8592,15 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>33</v>
@@ -8624,15 +8621,15 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>33</v>
@@ -8653,15 +8650,15 @@
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="7"/>
       <c r="H19" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>33</v>
@@ -8673,7 +8670,7 @@
       <c r="L19" s="50"/>
       <c r="M19" s="7"/>
       <c r="N19" s="50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O19" s="11"/>
     </row>
@@ -8684,10 +8681,10 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="7"/>
@@ -8702,7 +8699,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="7"/>
       <c r="N20" s="50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O20" s="11"/>
     </row>
@@ -8713,10 +8710,10 @@
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="7"/>
@@ -8731,7 +8728,7 @@
       <c r="L21" s="50"/>
       <c r="M21" s="7"/>
       <c r="N21" s="50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O21" s="11"/>
     </row>
@@ -8805,7 +8802,7 @@
     </row>
     <row r="26" s="4" customFormat="1" spans="1:15">
       <c r="A26" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -8827,11 +8824,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>47</v>
@@ -8840,12 +8837,12 @@
         <v>49</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
@@ -8858,21 +8855,21 @@
         <v>1</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H28" s="46"/>
       <c r="I28" s="56"/>
       <c r="J28" s="45" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K28" s="46"/>
       <c r="L28" s="46"/>
@@ -8950,7 +8947,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -8972,27 +8969,27 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -9007,17 +9004,17 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -9032,7 +9029,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -9047,7 +9044,7 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -9057,11 +9054,11 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="46"/>
@@ -9070,7 +9067,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -9092,18 +9089,18 @@
         <v>26</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -9119,12 +9116,12 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -9173,19 +9170,19 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
@@ -9202,13 +9199,13 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
@@ -9225,7 +9222,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -9240,7 +9237,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -9250,7 +9247,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="7"/>
@@ -9261,7 +9258,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -9283,18 +9280,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
